--- a/liga_eliminacao/datasets_liga_eliminacao/Jogadores_Mais_Escalados_Por_Posicao_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Jogadores_Mais_Escalados_Por_Posicao_Liga_Eliminacao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>Nome</t>
   </si>
@@ -28,31 +28,31 @@
     <t>Quantidade</t>
   </si>
   <si>
+    <t>Ronaldo</t>
+  </si>
+  <si>
     <t>Weverton</t>
   </si>
   <si>
     <t>Anthoni</t>
   </si>
   <si>
-    <t>Cássio</t>
-  </si>
-  <si>
     <t>Léo Ortiz</t>
   </si>
   <si>
+    <t>Junior Alonso</t>
+  </si>
+  <si>
+    <t>Kanu</t>
+  </si>
+  <si>
     <t>Arboleda</t>
   </si>
   <si>
-    <t>Lyanco</t>
-  </si>
-  <si>
-    <t>Junior Alonso</t>
-  </si>
-  <si>
     <t>Juninho Capixaba</t>
   </si>
   <si>
-    <t>Bernabéi</t>
+    <t>Natanael</t>
   </si>
   <si>
     <t>Wesley</t>
@@ -64,33 +64,33 @@
     <t>Arias</t>
   </si>
   <si>
+    <t>Gustavo Scarpa</t>
+  </si>
+  <si>
     <t>Jhon Jhon</t>
   </si>
   <si>
+    <t>Richard Ríos</t>
+  </si>
+  <si>
     <t>Gabriel Bontempo</t>
   </si>
   <si>
-    <t>Richard Ríos</t>
-  </si>
-  <si>
-    <t>Alan Patrick</t>
-  </si>
-  <si>
     <t>Gabriel</t>
   </si>
   <si>
+    <t>Vegetti</t>
+  </si>
+  <si>
+    <t>Hulk</t>
+  </si>
+  <si>
     <t>Yuri Alberto</t>
   </si>
   <si>
     <t>Igor Jesus</t>
   </si>
   <si>
-    <t>Estêvão</t>
-  </si>
-  <si>
-    <t>Bruno Henrique</t>
-  </si>
-  <si>
     <t>Goleiro</t>
   </si>
   <si>
@@ -106,31 +106,37 @@
     <t>Atacante</t>
   </si>
   <si>
+    <t>BAH</t>
+  </si>
+  <si>
     <t>PAL</t>
   </si>
   <si>
     <t>INT</t>
   </si>
   <si>
+    <t>FLA</t>
+  </si>
+  <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>SAO</t>
+  </si>
+  <si>
+    <t>RBB</t>
+  </si>
+  <si>
+    <t>FLU</t>
+  </si>
+  <si>
+    <t>SAN</t>
+  </si>
+  <si>
     <t>CRU</t>
   </si>
   <si>
-    <t>FLA</t>
-  </si>
-  <si>
-    <t>SAO</t>
-  </si>
-  <si>
-    <t>CAM</t>
-  </si>
-  <si>
-    <t>RBB</t>
-  </si>
-  <si>
-    <t>FLU</t>
-  </si>
-  <si>
-    <t>SAN</t>
+    <t>VAS</t>
   </si>
   <si>
     <t>COR</t>
@@ -525,7 +531,7 @@
         <v>30</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -539,7 +545,7 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -553,7 +559,7 @@
         <v>32</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -567,7 +573,7 @@
         <v>33</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -581,7 +587,7 @@
         <v>34</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -592,10 +598,10 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -609,7 +615,7 @@
         <v>35</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -623,7 +629,7 @@
         <v>36</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -634,10 +640,10 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -651,7 +657,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -662,10 +668,10 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -679,7 +685,7 @@
         <v>37</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -690,10 +696,10 @@
         <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -704,10 +710,10 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -718,7 +724,7 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16">
         <v>14</v>
@@ -732,10 +738,10 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -746,7 +752,7 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D18">
         <v>30</v>
@@ -760,10 +766,10 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -774,10 +780,10 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -788,10 +794,10 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -802,10 +808,10 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/liga_eliminacao/datasets_liga_eliminacao/Jogadores_Mais_Escalados_Por_Posicao_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Jogadores_Mais_Escalados_Por_Posicao_Liga_Eliminacao.xlsx
@@ -70,10 +70,10 @@
     <t>Jhon Jhon</t>
   </si>
   <si>
+    <t>Gabriel Bontempo</t>
+  </si>
+  <si>
     <t>Richard Ríos</t>
-  </si>
-  <si>
-    <t>Gabriel Bontempo</t>
   </si>
   <si>
     <t>Gabriel</t>
@@ -545,7 +545,7 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -559,7 +559,7 @@
         <v>32</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -573,7 +573,7 @@
         <v>33</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -587,7 +587,7 @@
         <v>34</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -615,7 +615,7 @@
         <v>35</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -629,7 +629,7 @@
         <v>36</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -657,7 +657,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -671,7 +671,7 @@
         <v>32</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -685,7 +685,7 @@
         <v>37</v>
       </c>
       <c r="D13">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -699,7 +699,7 @@
         <v>34</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -713,7 +713,7 @@
         <v>36</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -724,10 +724,10 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -738,7 +738,7 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D17">
         <v>14</v>
@@ -811,7 +811,7 @@
         <v>42</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/liga_eliminacao/datasets_liga_eliminacao/Jogadores_Mais_Escalados_Por_Posicao_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Jogadores_Mais_Escalados_Por_Posicao_Liga_Eliminacao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>Nome</t>
   </si>
@@ -43,27 +43,30 @@
     <t>Junior Alonso</t>
   </si>
   <si>
+    <t>Jair</t>
+  </si>
+  <si>
     <t>Kanu</t>
   </si>
   <si>
-    <t>Arboleda</t>
-  </si>
-  <si>
     <t>Juninho Capixaba</t>
   </si>
   <si>
+    <t>Wesley</t>
+  </si>
+  <si>
     <t>Natanael</t>
   </si>
   <si>
-    <t>Wesley</t>
-  </si>
-  <si>
-    <t>Aguirre</t>
+    <t>Bernabéi</t>
   </si>
   <si>
     <t>Arias</t>
   </si>
   <si>
+    <t>Arrascaeta</t>
+  </si>
+  <si>
     <t>Gustavo Scarpa</t>
   </si>
   <si>
@@ -73,7 +76,10 @@
     <t>Gabriel Bontempo</t>
   </si>
   <si>
-    <t>Richard Ríos</t>
+    <t>Yuri Alberto</t>
+  </si>
+  <si>
+    <t>Igor Jesus</t>
   </si>
   <si>
     <t>Gabriel</t>
@@ -85,12 +91,6 @@
     <t>Hulk</t>
   </si>
   <si>
-    <t>Yuri Alberto</t>
-  </si>
-  <si>
-    <t>Igor Jesus</t>
-  </si>
-  <si>
     <t>Goleiro</t>
   </si>
   <si>
@@ -121,7 +121,7 @@
     <t>CAM</t>
   </si>
   <si>
-    <t>SAO</t>
+    <t>BOT</t>
   </si>
   <si>
     <t>RBB</t>
@@ -133,16 +133,13 @@
     <t>SAN</t>
   </si>
   <si>
+    <t>COR</t>
+  </si>
+  <si>
     <t>CRU</t>
   </si>
   <si>
     <t>VAS</t>
-  </si>
-  <si>
-    <t>COR</t>
-  </si>
-  <si>
-    <t>BOT</t>
   </si>
 </sst>
 </file>
@@ -559,7 +556,7 @@
         <v>32</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -573,7 +570,7 @@
         <v>33</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -598,10 +595,10 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -612,10 +609,10 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -629,7 +626,7 @@
         <v>36</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -640,10 +637,10 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -654,10 +651,10 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -671,7 +668,7 @@
         <v>32</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -696,10 +693,10 @@
         <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -710,10 +707,10 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -724,10 +721,10 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -738,10 +735,10 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -755,7 +752,7 @@
         <v>39</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -766,10 +763,10 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D19">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -780,10 +777,10 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -797,7 +794,7 @@
         <v>41</v>
       </c>
       <c r="D21">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -808,10 +805,10 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D22">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/liga_eliminacao/datasets_liga_eliminacao/Jogadores_Mais_Escalados_Por_Posicao_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Jogadores_Mais_Escalados_Por_Posicao_Liga_Eliminacao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t>Nome</t>
   </si>
@@ -31,12 +31,12 @@
     <t>Ronaldo</t>
   </si>
   <si>
+    <t>Matheus Donelli</t>
+  </si>
+  <si>
     <t>Weverton</t>
   </si>
   <si>
-    <t>Anthoni</t>
-  </si>
-  <si>
     <t>Léo Ortiz</t>
   </si>
   <si>
@@ -46,18 +46,18 @@
     <t>Jair</t>
   </si>
   <si>
-    <t>Kanu</t>
+    <t>Félix Torres</t>
   </si>
   <si>
     <t>Juninho Capixaba</t>
   </si>
   <si>
+    <t>Angileri</t>
+  </si>
+  <si>
     <t>Wesley</t>
   </si>
   <si>
-    <t>Natanael</t>
-  </si>
-  <si>
     <t>Bernabéi</t>
   </si>
   <si>
@@ -67,28 +67,28 @@
     <t>Arrascaeta</t>
   </si>
   <si>
+    <t>Alan Patrick</t>
+  </si>
+  <si>
     <t>Gustavo Scarpa</t>
   </si>
   <si>
     <t>Jhon Jhon</t>
   </si>
   <si>
-    <t>Gabriel Bontempo</t>
-  </si>
-  <si>
     <t>Yuri Alberto</t>
   </si>
   <si>
     <t>Igor Jesus</t>
   </si>
   <si>
+    <t>Hulk</t>
+  </si>
+  <si>
     <t>Gabriel</t>
   </si>
   <si>
-    <t>Vegetti</t>
-  </si>
-  <si>
-    <t>Hulk</t>
+    <t>Guilherme</t>
   </si>
   <si>
     <t>Goleiro</t>
@@ -109,37 +109,34 @@
     <t>BAH</t>
   </si>
   <si>
+    <t>COR</t>
+  </si>
+  <si>
     <t>PAL</t>
   </si>
   <si>
+    <t>FLA</t>
+  </si>
+  <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>BOT</t>
+  </si>
+  <si>
+    <t>RBB</t>
+  </si>
+  <si>
     <t>INT</t>
   </si>
   <si>
-    <t>FLA</t>
-  </si>
-  <si>
-    <t>CAM</t>
-  </si>
-  <si>
-    <t>BOT</t>
-  </si>
-  <si>
-    <t>RBB</t>
-  </si>
-  <si>
     <t>FLU</t>
   </si>
   <si>
+    <t>CRU</t>
+  </si>
+  <si>
     <t>SAN</t>
-  </si>
-  <si>
-    <t>COR</t>
-  </si>
-  <si>
-    <t>CRU</t>
-  </si>
-  <si>
-    <t>VAS</t>
   </si>
 </sst>
 </file>
@@ -528,7 +525,7 @@
         <v>30</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -542,7 +539,7 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -556,7 +553,7 @@
         <v>32</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -570,7 +567,7 @@
         <v>33</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -584,7 +581,7 @@
         <v>34</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -598,7 +595,7 @@
         <v>35</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -609,10 +606,10 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -626,7 +623,7 @@
         <v>36</v>
       </c>
       <c r="D9">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -637,10 +634,10 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -651,10 +648,10 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -665,10 +662,10 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -679,10 +676,10 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -696,7 +693,7 @@
         <v>33</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -707,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -721,10 +718,10 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -735,10 +732,10 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -749,10 +746,10 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -766,7 +763,7 @@
         <v>35</v>
       </c>
       <c r="D19">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -777,10 +774,10 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -791,10 +788,10 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D21">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -805,10 +802,10 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D22">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/liga_eliminacao/datasets_liga_eliminacao/Jogadores_Mais_Escalados_Por_Posicao_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Jogadores_Mais_Escalados_Por_Posicao_Liga_Eliminacao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>Nome</t>
   </si>
@@ -28,12 +28,12 @@
     <t>Quantidade</t>
   </si>
   <si>
+    <t>Anthoni</t>
+  </si>
+  <si>
     <t>Ronaldo</t>
   </si>
   <si>
-    <t>Matheus Donelli</t>
-  </si>
-  <si>
     <t>Weverton</t>
   </si>
   <si>
@@ -46,21 +46,21 @@
     <t>Jair</t>
   </si>
   <si>
-    <t>Félix Torres</t>
+    <t>Vitão</t>
+  </si>
+  <si>
+    <t>Bernabéi</t>
   </si>
   <si>
     <t>Juninho Capixaba</t>
   </si>
   <si>
+    <t>Wesley</t>
+  </si>
+  <si>
     <t>Angileri</t>
   </si>
   <si>
-    <t>Wesley</t>
-  </si>
-  <si>
-    <t>Bernabéi</t>
-  </si>
-  <si>
     <t>Arias</t>
   </si>
   <si>
@@ -73,22 +73,22 @@
     <t>Gustavo Scarpa</t>
   </si>
   <si>
-    <t>Jhon Jhon</t>
+    <t>Gerson</t>
   </si>
   <si>
     <t>Yuri Alberto</t>
   </si>
   <si>
+    <t>Guilherme</t>
+  </si>
+  <si>
     <t>Igor Jesus</t>
   </si>
   <si>
     <t>Hulk</t>
   </si>
   <si>
-    <t>Gabriel</t>
-  </si>
-  <si>
-    <t>Guilherme</t>
+    <t>Estêvão</t>
   </si>
   <si>
     <t>Goleiro</t>
@@ -106,34 +106,31 @@
     <t>Atacante</t>
   </si>
   <si>
+    <t>INT</t>
+  </si>
+  <si>
     <t>BAH</t>
   </si>
   <si>
+    <t>PAL</t>
+  </si>
+  <si>
+    <t>FLA</t>
+  </si>
+  <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>BOT</t>
+  </si>
+  <si>
+    <t>RBB</t>
+  </si>
+  <si>
     <t>COR</t>
   </si>
   <si>
-    <t>PAL</t>
-  </si>
-  <si>
-    <t>FLA</t>
-  </si>
-  <si>
-    <t>CAM</t>
-  </si>
-  <si>
-    <t>BOT</t>
-  </si>
-  <si>
-    <t>RBB</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>FLU</t>
-  </si>
-  <si>
-    <t>CRU</t>
   </si>
   <si>
     <t>SAN</t>
@@ -525,7 +522,7 @@
         <v>30</v>
       </c>
       <c r="D2">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -539,7 +536,7 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -553,7 +550,7 @@
         <v>32</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -567,7 +564,7 @@
         <v>33</v>
       </c>
       <c r="D5">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -581,7 +578,7 @@
         <v>34</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -595,7 +592,7 @@
         <v>35</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -606,10 +603,10 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -620,10 +617,10 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -634,10 +631,10 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -651,7 +648,7 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -665,7 +662,7 @@
         <v>37</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -679,7 +676,7 @@
         <v>38</v>
       </c>
       <c r="D13">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -693,7 +690,7 @@
         <v>33</v>
       </c>
       <c r="D14">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -704,10 +701,10 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>37</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -732,10 +729,10 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -746,7 +743,7 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D18">
         <v>76</v>
@@ -760,10 +757,10 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -774,10 +771,10 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -788,10 +785,10 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -802,10 +799,10 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/liga_eliminacao/datasets_liga_eliminacao/Jogadores_Mais_Escalados_Por_Posicao_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Jogadores_Mais_Escalados_Por_Posicao_Liga_Eliminacao.xlsx
@@ -40,27 +40,27 @@
     <t>Léo Ortiz</t>
   </si>
   <si>
+    <t>Ignácio</t>
+  </si>
+  <si>
     <t>Junior Alonso</t>
   </si>
   <si>
     <t>Jair</t>
   </si>
   <si>
-    <t>Vitão</t>
+    <t>Juninho Capixaba</t>
   </si>
   <si>
     <t>Bernabéi</t>
   </si>
   <si>
-    <t>Juninho Capixaba</t>
+    <t>Escobar</t>
   </si>
   <si>
     <t>Wesley</t>
   </si>
   <si>
-    <t>Angileri</t>
-  </si>
-  <si>
     <t>Arias</t>
   </si>
   <si>
@@ -70,27 +70,27 @@
     <t>Alan Patrick</t>
   </si>
   <si>
+    <t>Jhon Jhon</t>
+  </si>
+  <si>
     <t>Gustavo Scarpa</t>
   </si>
   <si>
-    <t>Gerson</t>
-  </si>
-  <si>
     <t>Yuri Alberto</t>
   </si>
   <si>
     <t>Guilherme</t>
   </si>
   <si>
+    <t>Estêvão</t>
+  </si>
+  <si>
     <t>Igor Jesus</t>
   </si>
   <si>
     <t>Hulk</t>
   </si>
   <si>
-    <t>Estêvão</t>
-  </si>
-  <si>
     <t>Goleiro</t>
   </si>
   <si>
@@ -118,6 +118,9 @@
     <t>FLA</t>
   </si>
   <si>
+    <t>FLU</t>
+  </si>
+  <si>
     <t>CAM</t>
   </si>
   <si>
@@ -127,13 +130,10 @@
     <t>RBB</t>
   </si>
   <si>
+    <t>SAN</t>
+  </si>
+  <si>
     <t>COR</t>
-  </si>
-  <si>
-    <t>FLU</t>
-  </si>
-  <si>
-    <t>SAN</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
         <v>30</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -550,7 +550,7 @@
         <v>32</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -564,7 +564,7 @@
         <v>33</v>
       </c>
       <c r="D5">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -578,7 +578,7 @@
         <v>34</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -592,7 +592,7 @@
         <v>35</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -603,10 +603,10 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -617,10 +617,10 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D9">
-        <v>55</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -631,10 +631,10 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -645,10 +645,10 @@
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D11">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -659,10 +659,10 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -673,10 +673,10 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>74</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -690,7 +690,7 @@
         <v>33</v>
       </c>
       <c r="D14">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -704,7 +704,7 @@
         <v>30</v>
       </c>
       <c r="D15">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -715,10 +715,10 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -729,10 +729,10 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -743,10 +743,10 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D18">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -757,7 +757,7 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19">
         <v>47</v>
@@ -771,10 +771,10 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -785,10 +785,10 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D21">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -799,10 +799,10 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D22">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/liga_eliminacao/datasets_liga_eliminacao/Jogadores_Mais_Escalados_Por_Posicao_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Jogadores_Mais_Escalados_Por_Posicao_Liga_Eliminacao.xlsx
@@ -28,15 +28,15 @@
     <t>Quantidade</t>
   </si>
   <si>
+    <t>Weverton</t>
+  </si>
+  <si>
     <t>Anthoni</t>
   </si>
   <si>
     <t>Ronaldo</t>
   </si>
   <si>
-    <t>Weverton</t>
-  </si>
-  <si>
     <t>Léo Ortiz</t>
   </si>
   <si>
@@ -61,36 +61,36 @@
     <t>Wesley</t>
   </si>
   <si>
+    <t>Arrascaeta</t>
+  </si>
+  <si>
     <t>Arias</t>
   </si>
   <si>
-    <t>Arrascaeta</t>
-  </si>
-  <si>
     <t>Alan Patrick</t>
   </si>
   <si>
+    <t>Rubens</t>
+  </si>
+  <si>
     <t>Jhon Jhon</t>
   </si>
   <si>
-    <t>Gustavo Scarpa</t>
-  </si>
-  <si>
     <t>Yuri Alberto</t>
   </si>
   <si>
+    <t>Hulk</t>
+  </si>
+  <si>
+    <t>Igor Jesus</t>
+  </si>
+  <si>
+    <t>Estêvão</t>
+  </si>
+  <si>
     <t>Guilherme</t>
   </si>
   <si>
-    <t>Estêvão</t>
-  </si>
-  <si>
-    <t>Igor Jesus</t>
-  </si>
-  <si>
-    <t>Hulk</t>
-  </si>
-  <si>
     <t>Goleiro</t>
   </si>
   <si>
@@ -106,13 +106,13 @@
     <t>Atacante</t>
   </si>
   <si>
+    <t>PAL</t>
+  </si>
+  <si>
     <t>INT</t>
   </si>
   <si>
     <t>BAH</t>
-  </si>
-  <si>
-    <t>PAL</t>
   </si>
   <si>
     <t>FLA</t>
@@ -522,7 +522,7 @@
         <v>30</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -536,7 +536,7 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -550,7 +550,7 @@
         <v>32</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -564,7 +564,7 @@
         <v>33</v>
       </c>
       <c r="D5">
-        <v>91</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -592,7 +592,7 @@
         <v>35</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -620,7 +620,7 @@
         <v>37</v>
       </c>
       <c r="D9">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -631,7 +631,7 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>56</v>
@@ -648,7 +648,7 @@
         <v>38</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -662,7 +662,7 @@
         <v>33</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -673,10 +673,10 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -687,10 +687,10 @@
         <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -701,7 +701,7 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15">
         <v>71</v>
@@ -715,10 +715,10 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -729,10 +729,10 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D17">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -746,7 +746,7 @@
         <v>39</v>
       </c>
       <c r="D18">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -757,10 +757,10 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D19">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -771,10 +771,10 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D20">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -785,10 +785,10 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -799,10 +799,10 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D22">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/liga_eliminacao/datasets_liga_eliminacao/Jogadores_Mais_Escalados_Por_Posicao_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Jogadores_Mais_Escalados_Por_Posicao_Liga_Eliminacao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>Nome</t>
   </si>
@@ -28,12 +28,12 @@
     <t>Quantidade</t>
   </si>
   <si>
+    <t>Anthoni</t>
+  </si>
+  <si>
     <t>Weverton</t>
   </si>
   <si>
-    <t>Anthoni</t>
-  </si>
-  <si>
     <t>Ronaldo</t>
   </si>
   <si>
@@ -46,7 +46,7 @@
     <t>Junior Alonso</t>
   </si>
   <si>
-    <t>Jair</t>
+    <t>Vitão</t>
   </si>
   <si>
     <t>Juninho Capixaba</t>
@@ -61,12 +61,12 @@
     <t>Wesley</t>
   </si>
   <si>
+    <t>Arias</t>
+  </si>
+  <si>
     <t>Arrascaeta</t>
   </si>
   <si>
-    <t>Arias</t>
-  </si>
-  <si>
     <t>Alan Patrick</t>
   </si>
   <si>
@@ -88,9 +88,6 @@
     <t>Estêvão</t>
   </si>
   <si>
-    <t>Guilherme</t>
-  </si>
-  <si>
     <t>Goleiro</t>
   </si>
   <si>
@@ -106,12 +103,12 @@
     <t>Atacante</t>
   </si>
   <si>
+    <t>INT</t>
+  </si>
+  <si>
     <t>PAL</t>
   </si>
   <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>BAH</t>
   </si>
   <si>
@@ -124,16 +121,16 @@
     <t>CAM</t>
   </si>
   <si>
+    <t>RBB</t>
+  </si>
+  <si>
+    <t>SAN</t>
+  </si>
+  <si>
+    <t>COR</t>
+  </si>
+  <si>
     <t>BOT</t>
-  </si>
-  <si>
-    <t>RBB</t>
-  </si>
-  <si>
-    <t>SAN</t>
-  </si>
-  <si>
-    <t>COR</t>
   </si>
 </sst>
 </file>
@@ -516,13 +513,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -530,13 +527,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -544,10 +541,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>31</v>
@@ -558,13 +555,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -572,10 +569,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>32</v>
@@ -586,10 +583,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <v>31</v>
@@ -600,13 +597,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -614,13 +611,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -628,13 +625,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -642,10 +639,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11">
         <v>42</v>
@@ -656,13 +653,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -670,13 +667,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
       </c>
       <c r="D13">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -684,13 +681,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -698,13 +695,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -712,13 +709,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -726,13 +723,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -740,13 +737,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18">
-        <v>85</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -754,13 +751,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -768,10 +765,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D20">
         <v>55</v>
@@ -779,30 +776,30 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
       <c r="D21">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D22">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/liga_eliminacao/datasets_liga_eliminacao/Jogadores_Mais_Escalados_Por_Posicao_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Jogadores_Mais_Escalados_Por_Posicao_Liga_Eliminacao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>Nome</t>
   </si>
@@ -40,15 +40,15 @@
     <t>Léo Ortiz</t>
   </si>
   <si>
+    <t>Pedro Henrique</t>
+  </si>
+  <si>
     <t>Ignácio</t>
   </si>
   <si>
     <t>Junior Alonso</t>
   </si>
   <si>
-    <t>Vitão</t>
-  </si>
-  <si>
     <t>Juninho Capixaba</t>
   </si>
   <si>
@@ -70,12 +70,12 @@
     <t>Alan Patrick</t>
   </si>
   <si>
+    <t>Jhon Jhon</t>
+  </si>
+  <si>
     <t>Rubens</t>
   </si>
   <si>
-    <t>Jhon Jhon</t>
-  </si>
-  <si>
     <t>Yuri Alberto</t>
   </si>
   <si>
@@ -85,6 +85,9 @@
     <t>Igor Jesus</t>
   </si>
   <si>
+    <t>Eduardo Sasha</t>
+  </si>
+  <si>
     <t>Estêvão</t>
   </si>
   <si>
@@ -115,13 +118,13 @@
     <t>FLA</t>
   </si>
   <si>
+    <t>RBB</t>
+  </si>
+  <si>
     <t>FLU</t>
   </si>
   <si>
     <t>CAM</t>
-  </si>
-  <si>
-    <t>RBB</t>
   </si>
   <si>
     <t>SAN</t>
@@ -513,13 +516,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -527,13 +530,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -541,10 +544,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>31</v>
@@ -555,13 +558,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -569,13 +572,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -583,13 +586,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -597,13 +600,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -611,13 +614,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>88</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -625,13 +628,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -639,10 +642,10 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11">
         <v>42</v>
@@ -653,10 +656,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>34</v>
@@ -667,13 +670,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D13">
-        <v>129</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -681,13 +684,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -695,13 +698,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -709,13 +712,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
       </c>
       <c r="D16">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -723,13 +726,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -737,13 +740,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -751,13 +754,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D19">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -765,10 +768,10 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D20">
         <v>55</v>
@@ -776,30 +779,30 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D21">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/liga_eliminacao/datasets_liga_eliminacao/Jogadores_Mais_Escalados_Por_Posicao_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Jogadores_Mais_Escalados_Por_Posicao_Liga_Eliminacao.xlsx
@@ -61,12 +61,12 @@
     <t>Wesley</t>
   </si>
   <si>
+    <t>Arrascaeta</t>
+  </si>
+  <si>
     <t>Arias</t>
   </si>
   <si>
-    <t>Arrascaeta</t>
-  </si>
-  <si>
     <t>Alan Patrick</t>
   </si>
   <si>
@@ -82,15 +82,12 @@
     <t>Hulk</t>
   </si>
   <si>
+    <t>Vegetti</t>
+  </si>
+  <si>
     <t>Igor Jesus</t>
   </si>
   <si>
-    <t>Eduardo Sasha</t>
-  </si>
-  <si>
-    <t>Estêvão</t>
-  </si>
-  <si>
     <t>Goleiro</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>COR</t>
+  </si>
+  <si>
+    <t>VAS</t>
   </si>
   <si>
     <t>BOT</t>
@@ -516,13 +516,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -530,10 +530,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>46</v>
@@ -544,10 +544,10 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>31</v>
@@ -558,13 +558,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>135</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -572,10 +572,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>42</v>
@@ -586,10 +586,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <v>32</v>
@@ -600,10 +600,10 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>31</v>
@@ -614,13 +614,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -628,10 +628,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10">
         <v>79</v>
@@ -642,13 +642,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -656,13 +656,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -670,13 +670,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -684,13 +684,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14">
-        <v>131</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -698,13 +698,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15">
-        <v>99</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -712,13 +712,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -726,13 +726,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -740,10 +740,10 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18">
         <v>114</v>
@@ -754,13 +754,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -768,41 +768,41 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" t="s">
-        <v>34</v>
-      </c>
       <c r="D21">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D22">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/liga_eliminacao/datasets_liga_eliminacao/Jogadores_Mais_Escalados_Por_Posicao_Liga_Eliminacao.xlsx
+++ b/liga_eliminacao/datasets_liga_eliminacao/Jogadores_Mais_Escalados_Por_Posicao_Liga_Eliminacao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t>Nome</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Pedro Henrique</t>
   </si>
   <si>
-    <t>Ignácio</t>
+    <t>Arboleda</t>
   </si>
   <si>
     <t>Junior Alonso</t>
@@ -82,12 +82,12 @@
     <t>Hulk</t>
   </si>
   <si>
+    <t>Kaio Jorge</t>
+  </si>
+  <si>
     <t>Vegetti</t>
   </si>
   <si>
-    <t>Igor Jesus</t>
-  </si>
-  <si>
     <t>Goleiro</t>
   </si>
   <si>
@@ -118,22 +118,25 @@
     <t>RBB</t>
   </si>
   <si>
+    <t>SAO</t>
+  </si>
+  <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>SAN</t>
+  </si>
+  <si>
     <t>FLU</t>
   </si>
   <si>
-    <t>CAM</t>
-  </si>
-  <si>
-    <t>SAN</t>
-  </si>
-  <si>
     <t>COR</t>
   </si>
   <si>
+    <t>CRU</t>
+  </si>
+  <si>
     <t>VAS</t>
-  </si>
-  <si>
-    <t>BOT</t>
   </si>
 </sst>
 </file>
@@ -578,7 +581,7 @@
         <v>33</v>
       </c>
       <c r="D6">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -592,7 +595,7 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -606,7 +609,7 @@
         <v>35</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -687,7 +690,7 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D14">
         <v>157</v>
@@ -718,7 +721,7 @@
         <v>33</v>
       </c>
       <c r="D16">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -732,7 +735,7 @@
         <v>35</v>
       </c>
       <c r="D17">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -743,7 +746,7 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18">
         <v>114</v>
@@ -760,7 +763,7 @@
         <v>35</v>
       </c>
       <c r="D19">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -771,38 +774,38 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D20">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D21">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
